--- a/data/Male_DRI.xlsx
+++ b/data/Male_DRI.xlsx
@@ -389,6 +389,73 @@
     </xf>
   </cellXfs>
   <cellStyles count="133">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -455,73 +522,6 @@
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1106,7 +1106,7 @@
         <v>0.6</v>
       </c>
       <c r="L3" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M3" s="1">
         <v>1.2</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M4" s="1">
         <v>1.8</v>
